--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emile1\Documents\Code\ProjetIA\projetIA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas\Documents\Cours\ENSC\2A\projetIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4452"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,11 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +85,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -92,6 +99,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70176934013056058"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -170,7 +185,7 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-CA07-430F-A553-65F4ACD832B3}"/>
               </c:ext>
@@ -194,7 +209,7 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-CA07-430F-A553-65F4ACD832B3}"/>
               </c:ext>
@@ -218,7 +233,7 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-CA07-430F-A553-65F4ACD832B3}"/>
               </c:ext>
@@ -242,7 +257,7 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-CA07-430F-A553-65F4ACD832B3}"/>
               </c:ext>
@@ -266,7 +281,7 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-CA07-430F-A553-65F4ACD832B3}"/>
               </c:ext>
@@ -290,7 +305,7 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-CA07-430F-A553-65F4ACD832B3}"/>
               </c:ext>
@@ -387,7 +402,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CA07-430F-A553-65F4ACD832B3}"/>
             </c:ext>
@@ -401,11 +416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1590313520"/>
-        <c:axId val="1588276624"/>
+        <c:axId val="182996680"/>
+        <c:axId val="182997072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1590313520"/>
+        <c:axId val="182996680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,12 +477,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1588276624"/>
+        <c:crossAx val="182997072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1588276624"/>
+        <c:axId val="182997072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +539,1126 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1590313520"/>
+        <c:crossAx val="182996680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estimation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> : f(X)= </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>67,7852040002053 * X /196,645317246739</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="66"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="67"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="68"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="69"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="70"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="71"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="72"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="73"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="75"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="76"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$20:$CB$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>64.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>65.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$21:$CB$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34470794905912966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68941589811825932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.034123847177389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3788317962365186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.723539745295648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0682476943547781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4129556434139077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7576635924730373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1023715415321669</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.447079490591296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7917874396504261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1364953887095561</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4812033377686848</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8259112868278153</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1706192358869441</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5153271849460745</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.8600351340052041</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2047430830643338</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5494510321234625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8941589811825921</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2388669302417226</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5835748793008522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9282828283599818</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.2729907774191123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6176987264782401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9624066755373697</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3071146245965011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.6518225736556307</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.9965305227147603</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.341238471773888</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.685946420833018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.030654369892149</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.375362318951279</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.720070268010408</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.064778217069538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.409486166128668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.754194115187797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.098902064246925</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.443610013306055</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.788317962365184</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.133025911424314</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.477733860483445</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.822441809542575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.167149758601704</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.511857707660834</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.856565656719964</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.201273605779093</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.545981554838225</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.890689503897352</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.23539745295648</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.580105402015612</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>17.924813351074739</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>18.269521300133871</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.614229249193002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.95893719825213</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19.303645147311261</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.648353096370389</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.993061045429521</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>20.337768994488648</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20.682476943547776</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.027184892606908</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>21.371892841666035</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.716600790725167</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.061308739784298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22.406016688843426</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="459357792"/>
+        <c:axId val="459353872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="459357792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Taille</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459353872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="459353872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Poids</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459357792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -613,6 +1747,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1129,27 +2300,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{751366A2-D93A-4751-8563-E0F3484FB575}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{751366A2-D93A-4751-8563-E0F3484FB575}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,6 +2849,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1467,15 +3186,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:CB34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>36.1</v>
       </c>
@@ -1483,7 +3202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>41.1</v>
       </c>
@@ -1491,7 +3210,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>47.9</v>
       </c>
@@ -1499,7 +3218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>47</v>
       </c>
@@ -1507,7 +3226,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>49.8</v>
       </c>
@@ -1515,7 +3234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>48.5</v>
       </c>
@@ -1523,7 +3242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>47.8</v>
       </c>
@@ -1531,7 +3250,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>55.5</v>
       </c>
@@ -1539,7 +3258,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>62</v>
       </c>
@@ -1547,7 +3266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>64.099999999999994</v>
       </c>
@@ -1555,7 +3274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>64.3</v>
       </c>
@@ -1563,11 +3282,682 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:74" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>65.3</v>
       </c>
       <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="BR13">
+        <v>66</v>
+      </c>
+      <c r="BS13">
+        <v>67</v>
+      </c>
+      <c r="BT13">
+        <v>68</v>
+      </c>
+      <c r="BU13">
+        <v>69</v>
+      </c>
+      <c r="BV13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:74" x14ac:dyDescent="0.3">
+      <c r="BR14">
+        <f>(BR13*-67.7852040002053)/(-196.645317246739)</f>
+        <v>22.750724637902557</v>
+      </c>
+      <c r="BS14">
+        <f>(BS13*-67.7852040002053)/(-196.645317246739)</f>
+        <v>23.095432586961685</v>
+      </c>
+      <c r="BT14">
+        <f>(BT13*-67.7852040002053)/(-196.645317246739)</f>
+        <v>23.440140536020817</v>
+      </c>
+      <c r="BU14">
+        <f>(BU13*-67.7852040002053)/(-196.645317246739)</f>
+        <v>23.784848485079944</v>
+      </c>
+      <c r="BV14">
+        <f>(BV13*-67.7852040002053)/(-196.645317246739)</f>
+        <v>24.129556434139076</v>
+      </c>
+    </row>
+    <row r="20" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>10</v>
+      </c>
+      <c r="O20">
+        <v>11</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>14</v>
+      </c>
+      <c r="S20">
+        <v>15</v>
+      </c>
+      <c r="T20">
+        <v>16</v>
+      </c>
+      <c r="U20">
+        <v>17</v>
+      </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>19</v>
+      </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+      <c r="Y20">
+        <v>21</v>
+      </c>
+      <c r="Z20">
+        <v>22</v>
+      </c>
+      <c r="AA20">
+        <v>23</v>
+      </c>
+      <c r="AB20">
+        <v>24</v>
+      </c>
+      <c r="AC20">
+        <v>25</v>
+      </c>
+      <c r="AD20">
+        <v>26</v>
+      </c>
+      <c r="AE20">
+        <v>27</v>
+      </c>
+      <c r="AF20">
+        <v>28</v>
+      </c>
+      <c r="AG20">
+        <v>29</v>
+      </c>
+      <c r="AH20">
+        <v>30</v>
+      </c>
+      <c r="AI20">
+        <v>31</v>
+      </c>
+      <c r="AJ20">
+        <v>32</v>
+      </c>
+      <c r="AK20">
+        <v>33</v>
+      </c>
+      <c r="AL20">
+        <v>34</v>
+      </c>
+      <c r="AM20">
+        <v>35</v>
+      </c>
+      <c r="AN20">
+        <v>36</v>
+      </c>
+      <c r="AO20">
+        <v>37</v>
+      </c>
+      <c r="AP20">
+        <v>38</v>
+      </c>
+      <c r="AQ20">
+        <v>39</v>
+      </c>
+      <c r="AR20">
+        <v>40</v>
+      </c>
+      <c r="AS20">
+        <v>41</v>
+      </c>
+      <c r="AT20">
+        <v>42</v>
+      </c>
+      <c r="AU20">
+        <v>43</v>
+      </c>
+      <c r="AV20">
+        <v>44</v>
+      </c>
+      <c r="AW20">
+        <v>45</v>
+      </c>
+      <c r="AX20">
+        <v>46</v>
+      </c>
+      <c r="AY20">
+        <v>47</v>
+      </c>
+      <c r="AZ20">
+        <v>48</v>
+      </c>
+      <c r="BA20">
+        <v>49</v>
+      </c>
+      <c r="BB20">
+        <v>50</v>
+      </c>
+      <c r="BC20">
+        <v>51</v>
+      </c>
+      <c r="BD20">
+        <v>52</v>
+      </c>
+      <c r="BE20">
+        <v>53</v>
+      </c>
+      <c r="BF20">
+        <v>54</v>
+      </c>
+      <c r="BG20">
+        <v>55</v>
+      </c>
+      <c r="BH20">
+        <v>56</v>
+      </c>
+      <c r="BI20">
+        <v>57</v>
+      </c>
+      <c r="BJ20">
+        <v>58</v>
+      </c>
+      <c r="BK20">
+        <v>59</v>
+      </c>
+      <c r="BL20">
+        <v>60</v>
+      </c>
+      <c r="BM20">
+        <v>61</v>
+      </c>
+      <c r="BN20">
+        <v>62</v>
+      </c>
+      <c r="BO20">
+        <v>63</v>
+      </c>
+      <c r="BP20">
+        <v>64</v>
+      </c>
+      <c r="BQ20">
+        <v>65</v>
+      </c>
+      <c r="BR20">
+        <v>36.1</v>
+      </c>
+      <c r="BS20">
+        <v>41.1</v>
+      </c>
+      <c r="BT20">
+        <v>47.9</v>
+      </c>
+      <c r="BU20">
+        <v>49.8</v>
+      </c>
+      <c r="BV20">
+        <v>48.5</v>
+      </c>
+      <c r="BW20">
+        <v>47.8</v>
+      </c>
+      <c r="BX20">
+        <v>55.5</v>
+      </c>
+      <c r="BY20">
+        <v>62</v>
+      </c>
+      <c r="BZ20">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="CA20">
+        <v>64.3</v>
+      </c>
+      <c r="CB20">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>(D20*-67.7852040002053)/(-196.645317246739)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:BP21" si="0">(E20*-67.7852040002053)/(-196.645317246739)</f>
+        <v>0.34470794905912966</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.68941589811825932</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1.034123847177389</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.3788317962365186</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.723539745295648</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.0682476943547781</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>2.4129556434139077</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>2.7576635924730373</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>3.1023715415321669</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>3.447079490591296</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>3.7917874396504261</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>4.1364953887095561</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>4.4812033377686848</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>4.8259112868278153</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>5.1706192358869441</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>5.5153271849460745</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>5.8600351340052041</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>6.2047430830643338</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>6.5494510321234625</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="0"/>
+        <v>6.8941589811825921</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>7.2388669302417226</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>7.5835748793008522</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>7.9282828283599818</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="0"/>
+        <v>8.2729907774191123</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="0"/>
+        <v>8.6176987264782401</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="0"/>
+        <v>8.9624066755373697</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="0"/>
+        <v>9.3071146245965011</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="0"/>
+        <v>9.6518225736556307</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="0"/>
+        <v>9.9965305227147603</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="0"/>
+        <v>10.341238471773888</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="0"/>
+        <v>10.685946420833018</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="0"/>
+        <v>11.030654369892149</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="0"/>
+        <v>11.375362318951279</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="0"/>
+        <v>11.720070268010408</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="0"/>
+        <v>12.064778217069538</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="0"/>
+        <v>12.409486166128668</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="0"/>
+        <v>12.754194115187797</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="0"/>
+        <v>13.098902064246925</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="0"/>
+        <v>13.443610013306055</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="0"/>
+        <v>13.788317962365184</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="0"/>
+        <v>14.133025911424314</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="0"/>
+        <v>14.477733860483445</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="0"/>
+        <v>14.822441809542575</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="0"/>
+        <v>15.167149758601704</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="0"/>
+        <v>15.511857707660834</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="0"/>
+        <v>15.856565656719964</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="0"/>
+        <v>16.201273605779093</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="0"/>
+        <v>16.545981554838225</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="0"/>
+        <v>16.890689503897352</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="0"/>
+        <v>17.23539745295648</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="0"/>
+        <v>17.580105402015612</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="0"/>
+        <v>17.924813351074739</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="0"/>
+        <v>18.269521300133871</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="0"/>
+        <v>18.614229249193002</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" si="0"/>
+        <v>18.95893719825213</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="0"/>
+        <v>19.303645147311261</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="0"/>
+        <v>19.648353096370389</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="0"/>
+        <v>19.993061045429521</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="0"/>
+        <v>20.337768994488648</v>
+      </c>
+      <c r="BL21">
+        <f t="shared" si="0"/>
+        <v>20.682476943547776</v>
+      </c>
+      <c r="BM21">
+        <f t="shared" si="0"/>
+        <v>21.027184892606908</v>
+      </c>
+      <c r="BN21">
+        <f t="shared" si="0"/>
+        <v>21.371892841666035</v>
+      </c>
+      <c r="BO21">
+        <f t="shared" si="0"/>
+        <v>21.716600790725167</v>
+      </c>
+      <c r="BP21">
+        <f t="shared" si="0"/>
+        <v>22.061308739784298</v>
+      </c>
+      <c r="BQ21">
+        <f t="shared" ref="BQ21:CM21" si="1">(BQ20*-67.7852040002053)/(-196.645317246739)</f>
+        <v>22.406016688843426</v>
+      </c>
+      <c r="BR21">
+        <v>17</v>
+      </c>
+      <c r="BS21">
+        <v>16.5</v>
+      </c>
+      <c r="BT21">
+        <v>18</v>
+      </c>
+      <c r="BU21">
+        <v>22</v>
+      </c>
+      <c r="BV21">
+        <v>21</v>
+      </c>
+      <c r="BW21">
+        <v>11.7</v>
+      </c>
+      <c r="BX21">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="BY21">
+        <v>13</v>
+      </c>
+      <c r="BZ21">
+        <v>22</v>
+      </c>
+      <c r="CA21">
+        <v>18.5</v>
+      </c>
+      <c r="CB21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>36.1</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>41.1</v>
+      </c>
+      <c r="D24">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>47.9</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>49.8</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>48.5</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>47.8</v>
+      </c>
+      <c r="D29">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>55.5</v>
+      </c>
+      <c r="D30">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:80" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>64.3</v>
+      </c>
+      <c r="D33">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>65.3</v>
+      </c>
+      <c r="D34">
         <v>21</v>
       </c>
     </row>
